--- a/相关文档/价格详细表格.xlsx
+++ b/相关文档/价格详细表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>后端(100元/小时)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>整体测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计报价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +110,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -131,12 +142,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,154 +457,163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D13"/>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.625" style="2"/>
-    <col min="3" max="3" width="23.75" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="20.625" style="2"/>
+    <col min="1" max="1" width="32.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="1"/>
+    <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="20.625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="11" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2">
-        <v>6</v>
-      </c>
     </row>
     <row r="13" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <f>SUM(B3:B12)</f>
         <v>68</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f>SUM(D3:D12)</f>
-        <v>48</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <f>(B13+D13)*100</f>
+        <v>11200</v>
       </c>
     </row>
   </sheetData>

--- a/相关文档/价格详细表格.xlsx
+++ b/相关文档/价格详细表格.xlsx
@@ -147,10 +147,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,7 +460,7 @@
   <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -472,14 +472,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -492,7 +492,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -520,7 +520,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -611,7 +611,7 @@
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f>(B13+D13)*100</f>
         <v>11200</v>
       </c>
